--- a/documents/First_sprint_ends_09_06_2018.xlsx
+++ b/documents/First_sprint_ends_09_06_2018.xlsx
@@ -100,6 +100,9 @@
     <t xml:space="preserve">Segun</t>
   </si>
   <si>
+    <t xml:space="preserve">DONE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work on initial Frontend design for the web interface </t>
   </si>
   <si>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +211,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor rgb="FF009933"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF009933"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF009900"/>
       </patternFill>
     </fill>
   </fills>
@@ -334,7 +340,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,6 +401,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -415,7 +425,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,11 +489,11 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF009933"/>
+      <rgbColor rgb="FF009900"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF009933"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -539,7 +549,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,7 +565,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.64"/>
   </cols>
   <sheetData>
@@ -678,8 +688,8 @@
       <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
+      <c r="E5" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -688,21 +698,21 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="B6" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -711,18 +721,18 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="17"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="9"/>
@@ -732,227 +742,227 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="18"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="15"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="18"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="15"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="18"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="15"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/documents/First_sprint_ends_09_06_2018.xlsx
+++ b/documents/First_sprint_ends_09_06_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t xml:space="preserve">TASK</t>
   </si>
@@ -72,6 +72,70 @@
     <t xml:space="preserve">Tope</t>
   </si>
   <si>
+    <t xml:space="preserve">IN PROGRESS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I have commited the codes to TopeBranch
+1. Task 2,3,4 completed
+2. Task 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TO DO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I will be a mechanism to ensure when a git init is done the hook scripts are copied locally.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Task for git init
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; mkdir -p ~/.git-templates/hooks
+==&gt; git config --global init.templatedir ~/.git-templates
+==&gt; copy the hook script into the ~/.git.templates
+==&gt; make the file executable e.g chmod +x ~/.git-templates/hooks/pre-commit
+==&gt; then when you run “git init”
+This will copy all the hook files into .git for your project</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Simple NodeJS code (web) that can write and read from MongoDB</t>
   </si>
   <si>
@@ -82,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN PROGRESS</t>
   </si>
   <si>
     <t xml:space="preserve">Created stub to help with getting started
@@ -134,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,6 +244,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -199,14 +275,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -340,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,23 +457,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,7 +485,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,7 +501,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,15 +509,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,23 +529,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -549,7 +629,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -623,7 +703,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -636,11 +716,15 @@
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -649,47 +733,47 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="12" t="s">
-        <v>20</v>
+      <c r="G4" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="13"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>24</v>
+      <c r="E5" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -698,21 +782,21 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="16"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>26</v>
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -721,18 +805,18 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="9"/>
@@ -742,227 +826,227 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="22"/>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="18"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="19"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="19"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
